--- a/data/pca/factorExposure/factorExposure_2010-05-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-06.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01502389788433774</v>
+        <v>-0.01709905197852483</v>
       </c>
       <c r="C2">
-        <v>-0.007785301246358938</v>
+        <v>0.001171188407857262</v>
       </c>
       <c r="D2">
-        <v>-0.01962587752872437</v>
+        <v>-0.008468373348681746</v>
       </c>
       <c r="E2">
-        <v>0.01005721404833741</v>
+        <v>-0.0009477457828064278</v>
       </c>
       <c r="F2">
-        <v>-0.01681979426056512</v>
+        <v>-0.01111064953926878</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1166968740780769</v>
+        <v>-0.09349858509993458</v>
       </c>
       <c r="C4">
-        <v>0.07929568448099471</v>
+        <v>0.01709519574991857</v>
       </c>
       <c r="D4">
-        <v>0.01874945878330361</v>
+        <v>-0.08299346169239306</v>
       </c>
       <c r="E4">
-        <v>0.01005453507782209</v>
+        <v>0.02948304303670925</v>
       </c>
       <c r="F4">
-        <v>-0.01551105435973318</v>
+        <v>0.0336748138390752</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.129673137766792</v>
+        <v>-0.1532385607134884</v>
       </c>
       <c r="C6">
-        <v>0.04887560706875535</v>
+        <v>0.0248467238451739</v>
       </c>
       <c r="D6">
-        <v>-0.004731532690975687</v>
+        <v>0.02228853032618619</v>
       </c>
       <c r="E6">
-        <v>-0.03198948824860968</v>
+        <v>0.00932398465602003</v>
       </c>
       <c r="F6">
-        <v>0.01499688491532238</v>
+        <v>0.04126470310255908</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07867027560970402</v>
+        <v>-0.06055469910338839</v>
       </c>
       <c r="C7">
-        <v>0.07631262945406439</v>
+        <v>-0.0002874307358936754</v>
       </c>
       <c r="D7">
-        <v>-0.005689454804480704</v>
+        <v>-0.05140468542028605</v>
       </c>
       <c r="E7">
-        <v>0.03457490363269394</v>
+        <v>0.01545192826298574</v>
       </c>
       <c r="F7">
-        <v>-0.005938305101414723</v>
+        <v>0.054497999806148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04862665943334905</v>
+        <v>-0.05843575228648454</v>
       </c>
       <c r="C8">
-        <v>0.03920226155950839</v>
+        <v>-0.01277366174517498</v>
       </c>
       <c r="D8">
-        <v>-0.002627369354460505</v>
+        <v>-0.02923504726679508</v>
       </c>
       <c r="E8">
-        <v>-0.03412273926184345</v>
+        <v>0.01351328695126454</v>
       </c>
       <c r="F8">
-        <v>0.00743114148381147</v>
+        <v>-0.02898843440456197</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08418447539020017</v>
+        <v>-0.0713746513549353</v>
       </c>
       <c r="C9">
-        <v>0.0639912517201871</v>
+        <v>0.013212863564969</v>
       </c>
       <c r="D9">
-        <v>0.02778382619839283</v>
+        <v>-0.08310781821868123</v>
       </c>
       <c r="E9">
-        <v>0.005187295325609622</v>
+        <v>0.0254092201803956</v>
       </c>
       <c r="F9">
-        <v>0.001478527143588966</v>
+        <v>0.05538729314951833</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1260432294534334</v>
+        <v>-0.09341028754940076</v>
       </c>
       <c r="C10">
-        <v>-0.1535416655855345</v>
+        <v>0.01660340283181996</v>
       </c>
       <c r="D10">
-        <v>-0.01926171282874982</v>
+        <v>0.171287225829814</v>
       </c>
       <c r="E10">
-        <v>0.03769724064277748</v>
+        <v>-0.03740219549131444</v>
       </c>
       <c r="F10">
-        <v>-0.01915613670800753</v>
+        <v>-0.05317325115324432</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07826317004622954</v>
+        <v>-0.08805850584986978</v>
       </c>
       <c r="C11">
-        <v>0.07200851184182282</v>
+        <v>0.01261256645933597</v>
       </c>
       <c r="D11">
-        <v>0.03497099115531378</v>
+        <v>-0.1140724951657917</v>
       </c>
       <c r="E11">
-        <v>-0.004180392377975423</v>
+        <v>0.04795524021076636</v>
       </c>
       <c r="F11">
-        <v>-0.007867176552710685</v>
+        <v>0.02321134958969216</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06964562903205476</v>
+        <v>-0.09329408651682249</v>
       </c>
       <c r="C12">
-        <v>0.06848917323594846</v>
+        <v>0.01043658180994036</v>
       </c>
       <c r="D12">
-        <v>0.0522425824679868</v>
+        <v>-0.120987659136555</v>
       </c>
       <c r="E12">
-        <v>0.01462086293831892</v>
+        <v>0.04711625444999081</v>
       </c>
       <c r="F12">
-        <v>0.01969891678855575</v>
+        <v>0.02509383412097995</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.02956957790920879</v>
+        <v>-0.04305394307763711</v>
       </c>
       <c r="C13">
-        <v>0.02637640004885008</v>
+        <v>0.003987467025423998</v>
       </c>
       <c r="D13">
-        <v>-0.01367576580722773</v>
+        <v>-0.04694015708587772</v>
       </c>
       <c r="E13">
-        <v>0.01426856917054572</v>
+        <v>-0.01256269503311418</v>
       </c>
       <c r="F13">
-        <v>0.006304721483409426</v>
+        <v>0.01610324764886117</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03703456443433529</v>
+        <v>-0.02200086347643926</v>
       </c>
       <c r="C14">
-        <v>0.03868014577957269</v>
+        <v>0.01463913669780321</v>
       </c>
       <c r="D14">
-        <v>0.02189209063780931</v>
+        <v>-0.03281942291790452</v>
       </c>
       <c r="E14">
-        <v>0.004707580706789676</v>
+        <v>0.0196239233534244</v>
       </c>
       <c r="F14">
-        <v>0.01366119236072345</v>
+        <v>0.01937122861450041</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01594090411573188</v>
+        <v>-0.03191300081086982</v>
       </c>
       <c r="C15">
-        <v>0.02226283677050708</v>
+        <v>0.005518443561748812</v>
       </c>
       <c r="D15">
-        <v>-0.06352691611946638</v>
+        <v>-0.04558748698779284</v>
       </c>
       <c r="E15">
-        <v>0.01243245247604745</v>
+        <v>0.009300300413353073</v>
       </c>
       <c r="F15">
-        <v>-0.01380996170973515</v>
+        <v>0.0320596364759388</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08214893048351291</v>
+        <v>-0.07462989497978992</v>
       </c>
       <c r="C16">
-        <v>0.07024481327682994</v>
+        <v>0.004093331629334517</v>
       </c>
       <c r="D16">
-        <v>0.04335625643241284</v>
+        <v>-0.1162419524189012</v>
       </c>
       <c r="E16">
-        <v>-0.02249880058615016</v>
+        <v>0.06258711819938181</v>
       </c>
       <c r="F16">
-        <v>0.001963160209802611</v>
+        <v>0.03333446528737948</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02158634986368931</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003762004598457594</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02132844692350975</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01056934317263134</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02432771706035683</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04229296294632177</v>
+        <v>-0.06100386708745042</v>
       </c>
       <c r="C20">
-        <v>0.03654167994344688</v>
+        <v>0.001847453452921773</v>
       </c>
       <c r="D20">
-        <v>-0.02475615858218141</v>
+        <v>-0.0736469346130243</v>
       </c>
       <c r="E20">
-        <v>0.02391263302739639</v>
+        <v>0.05490806299264763</v>
       </c>
       <c r="F20">
-        <v>0.02194112905934819</v>
+        <v>0.02988110181148862</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02404887919577169</v>
+        <v>-0.03914087518764924</v>
       </c>
       <c r="C21">
-        <v>0.006473807928222448</v>
+        <v>0.007808079543551629</v>
       </c>
       <c r="D21">
-        <v>0.01016021259133382</v>
+        <v>-0.03500465598186369</v>
       </c>
       <c r="E21">
-        <v>-0.006377218723812026</v>
+        <v>-0.008822021782305919</v>
       </c>
       <c r="F21">
-        <v>0.004734691504476895</v>
+        <v>-0.01906508514103964</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05745724047704632</v>
+        <v>-0.04230867080485536</v>
       </c>
       <c r="C22">
-        <v>0.01738152209751121</v>
+        <v>0.0001126089404733702</v>
       </c>
       <c r="D22">
-        <v>-0.6381337376379252</v>
+        <v>-0.001828076109096596</v>
       </c>
       <c r="E22">
-        <v>0.09764846905636348</v>
+        <v>0.02900647299196288</v>
       </c>
       <c r="F22">
-        <v>0.1471694319959249</v>
+        <v>-0.0105350314344144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05809407173739183</v>
+        <v>-0.04237068492786432</v>
       </c>
       <c r="C23">
-        <v>0.01862667543013911</v>
+        <v>0.0001376311384069834</v>
       </c>
       <c r="D23">
-        <v>-0.6404022308449886</v>
+        <v>-0.001948105255222559</v>
       </c>
       <c r="E23">
-        <v>0.096881526603986</v>
+        <v>0.02935596212878292</v>
       </c>
       <c r="F23">
-        <v>0.1471210615629203</v>
+        <v>-0.01007149254145977</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08294167464002417</v>
+        <v>-0.08088011946943449</v>
       </c>
       <c r="C24">
-        <v>0.06870963949206187</v>
+        <v>0.004424054078815827</v>
       </c>
       <c r="D24">
-        <v>0.03780677020697125</v>
+        <v>-0.1170986821434662</v>
       </c>
       <c r="E24">
-        <v>-0.002084916294264155</v>
+        <v>0.05026114813274503</v>
       </c>
       <c r="F24">
-        <v>0.004210248350750871</v>
+        <v>0.02567517001813428</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08347267397883382</v>
+        <v>-0.08543999001135727</v>
       </c>
       <c r="C25">
-        <v>0.06718881207865672</v>
+        <v>0.006424680684479267</v>
       </c>
       <c r="D25">
-        <v>0.05206928333898824</v>
+        <v>-0.1053781058687221</v>
       </c>
       <c r="E25">
-        <v>0.01039284006626921</v>
+        <v>0.03341184244082619</v>
       </c>
       <c r="F25">
-        <v>0.002036171779678307</v>
+        <v>0.0336356301071476</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04287983946842111</v>
+        <v>-0.05575762329303755</v>
       </c>
       <c r="C26">
-        <v>0.001414877228700694</v>
+        <v>0.01531286195022648</v>
       </c>
       <c r="D26">
-        <v>-0.01382977570492736</v>
+        <v>-0.03533913484600064</v>
       </c>
       <c r="E26">
-        <v>-0.02155566878559086</v>
+        <v>0.02719791466402474</v>
       </c>
       <c r="F26">
-        <v>0.06307552954219352</v>
+        <v>-0.006415494290652453</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1417137101406109</v>
+        <v>-0.1408569161968884</v>
       </c>
       <c r="C28">
-        <v>-0.2859728481267293</v>
+        <v>0.01442578288450075</v>
       </c>
       <c r="D28">
-        <v>-0.002751060291685221</v>
+        <v>0.2682723968335479</v>
       </c>
       <c r="E28">
-        <v>-0.07458524788521742</v>
+        <v>-0.06790093557239026</v>
       </c>
       <c r="F28">
-        <v>0.02572469116582702</v>
+        <v>0.03299625389624573</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03572488480829702</v>
+        <v>-0.0270616544230431</v>
       </c>
       <c r="C29">
-        <v>0.03235312000919266</v>
+        <v>0.008887457432919351</v>
       </c>
       <c r="D29">
-        <v>0.02582396422855907</v>
+        <v>-0.03147207187489075</v>
       </c>
       <c r="E29">
-        <v>0.03499472324541638</v>
+        <v>0.01244069882272592</v>
       </c>
       <c r="F29">
-        <v>0.0283396186899353</v>
+        <v>-0.01107259459614424</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09702928649449706</v>
+        <v>-0.06380933320606753</v>
       </c>
       <c r="C30">
-        <v>0.0683876885004738</v>
+        <v>0.005909782298881152</v>
       </c>
       <c r="D30">
-        <v>0.04508872625382367</v>
+        <v>-0.08037721572036147</v>
       </c>
       <c r="E30">
-        <v>-0.08966775237720707</v>
+        <v>0.02308011766418661</v>
       </c>
       <c r="F30">
-        <v>0.1947873929225297</v>
+        <v>0.1108867505404407</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03250100082199218</v>
+        <v>-0.04855963838972879</v>
       </c>
       <c r="C31">
-        <v>0.04943680495020848</v>
+        <v>0.01519131907105467</v>
       </c>
       <c r="D31">
-        <v>0.003271289660420906</v>
+        <v>-0.02808251538447391</v>
       </c>
       <c r="E31">
-        <v>0.0220922181235008</v>
+        <v>0.02737470268655083</v>
       </c>
       <c r="F31">
-        <v>-0.002672135469270404</v>
+        <v>-0.00366895557288883</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05634727620865423</v>
+        <v>-0.04844048816651766</v>
       </c>
       <c r="C32">
-        <v>0.03297315332975238</v>
+        <v>0.0005212247100357255</v>
       </c>
       <c r="D32">
-        <v>0.04804729425607664</v>
+        <v>-0.03054186315867315</v>
       </c>
       <c r="E32">
-        <v>-0.05696157284320957</v>
+        <v>0.02971019059719009</v>
       </c>
       <c r="F32">
-        <v>-0.01420517100153748</v>
+        <v>0.002249900467238857</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09272551938946151</v>
+        <v>-0.09036575975426597</v>
       </c>
       <c r="C33">
-        <v>0.06563654084841683</v>
+        <v>0.009577358467500345</v>
       </c>
       <c r="D33">
-        <v>0.03595163650186666</v>
+        <v>-0.09368722725571491</v>
       </c>
       <c r="E33">
-        <v>0.007273367903251829</v>
+        <v>0.04680309762984846</v>
       </c>
       <c r="F33">
-        <v>0.009263937560384466</v>
+        <v>0.04216367862592888</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06996053284151509</v>
+        <v>-0.06876332188557331</v>
       </c>
       <c r="C34">
-        <v>0.0550824698405941</v>
+        <v>0.01259563824731329</v>
       </c>
       <c r="D34">
-        <v>0.04444591961250186</v>
+        <v>-0.09794134688808991</v>
       </c>
       <c r="E34">
-        <v>-0.004085537715565614</v>
+        <v>0.03528550145787149</v>
       </c>
       <c r="F34">
-        <v>0.001185754510969311</v>
+        <v>0.04602027595238501</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01079321718786711</v>
+        <v>-0.02419576087604809</v>
       </c>
       <c r="C35">
-        <v>0.01377449251778867</v>
+        <v>0.002541477720802611</v>
       </c>
       <c r="D35">
-        <v>0.002356083265089904</v>
+        <v>-0.01139039255284918</v>
       </c>
       <c r="E35">
-        <v>0.01210151866260176</v>
+        <v>0.011732498894076</v>
       </c>
       <c r="F35">
-        <v>0.009750439564808526</v>
+        <v>0.01058888095011317</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02302829867548501</v>
+        <v>-0.02418341814120018</v>
       </c>
       <c r="C36">
-        <v>0.01839119111831385</v>
+        <v>0.007483448660548728</v>
       </c>
       <c r="D36">
-        <v>-0.009373953299877197</v>
+        <v>-0.03806147986680519</v>
       </c>
       <c r="E36">
-        <v>-0.00673859143207863</v>
+        <v>0.01665657296527295</v>
       </c>
       <c r="F36">
-        <v>0.02341299937138343</v>
+        <v>0.01189340045669045</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01132378090442494</v>
+        <v>-0.001848957267512318</v>
       </c>
       <c r="C38">
-        <v>0.02391570024247318</v>
+        <v>0.0003090153603942397</v>
       </c>
       <c r="D38">
-        <v>-0.02358529422002027</v>
+        <v>-0.002128735440567325</v>
       </c>
       <c r="E38">
-        <v>0.03772454227886873</v>
+        <v>0.002370830930127202</v>
       </c>
       <c r="F38">
-        <v>0.06292810220858162</v>
+        <v>-0.001074393908930023</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1098455205936957</v>
+        <v>-0.1096615379206639</v>
       </c>
       <c r="C39">
-        <v>0.09189259340058457</v>
+        <v>0.01804872352212839</v>
       </c>
       <c r="D39">
-        <v>0.145993256792958</v>
+        <v>-0.1507055304757778</v>
       </c>
       <c r="E39">
-        <v>-0.02024588708638959</v>
+        <v>0.05909313445406902</v>
       </c>
       <c r="F39">
-        <v>0.1012226810989235</v>
+        <v>0.03557427683924765</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02320913394412103</v>
+        <v>-0.03686739888613572</v>
       </c>
       <c r="C40">
-        <v>0.06072865204232614</v>
+        <v>0.007351384387294734</v>
       </c>
       <c r="D40">
-        <v>-0.02248519632277066</v>
+        <v>-0.03154591974367601</v>
       </c>
       <c r="E40">
-        <v>0.05478927337981267</v>
+        <v>0.003918758159274034</v>
       </c>
       <c r="F40">
-        <v>-0.003134900888107878</v>
+        <v>-0.01464771315856081</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02890212020944498</v>
+        <v>-0.02610369165553043</v>
       </c>
       <c r="C41">
-        <v>0.01802218598378552</v>
+        <v>0.006840734959249474</v>
       </c>
       <c r="D41">
-        <v>0.02196476513382969</v>
+        <v>-0.01080750692993433</v>
       </c>
       <c r="E41">
-        <v>0.01201576674815503</v>
+        <v>0.01198473753675842</v>
       </c>
       <c r="F41">
-        <v>0.01647112978691365</v>
+        <v>-0.009493805168637428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04033211303474551</v>
+        <v>-0.04134393060901135</v>
       </c>
       <c r="C43">
-        <v>0.02356755100395388</v>
+        <v>0.006887136852045587</v>
       </c>
       <c r="D43">
-        <v>-0.009524347073858047</v>
+        <v>-0.02048280564407056</v>
       </c>
       <c r="E43">
-        <v>0.003445331138231435</v>
+        <v>0.02527533832221961</v>
       </c>
       <c r="F43">
-        <v>0.04903732156736521</v>
+        <v>-0.01090354738018333</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1339299476245213</v>
+        <v>-0.07251525645831593</v>
       </c>
       <c r="C44">
-        <v>0.157438621224462</v>
+        <v>0.0222249223869263</v>
       </c>
       <c r="D44">
-        <v>-0.07693632222470281</v>
+        <v>-0.1002375244463142</v>
       </c>
       <c r="E44">
-        <v>0.09800340708310663</v>
+        <v>0.0674523840305904</v>
       </c>
       <c r="F44">
-        <v>0.045089330989794</v>
+        <v>0.171160372115935</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02834863220143994</v>
+        <v>-0.02223603240912318</v>
       </c>
       <c r="C46">
-        <v>0.006909570771085308</v>
+        <v>0.004245802245355571</v>
       </c>
       <c r="D46">
-        <v>-0.0278528833963868</v>
+        <v>-0.01095234658296502</v>
       </c>
       <c r="E46">
-        <v>0.03490675048268294</v>
+        <v>0.02258953474928231</v>
       </c>
       <c r="F46">
-        <v>0.03782821076470343</v>
+        <v>0.001793622778935876</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03914560660283983</v>
+        <v>-0.05201110121897624</v>
       </c>
       <c r="C47">
-        <v>0.02940711819226102</v>
+        <v>0.00340227831979441</v>
       </c>
       <c r="D47">
-        <v>0.003990278585337513</v>
+        <v>-0.01209118850754313</v>
       </c>
       <c r="E47">
-        <v>0.01401225925495449</v>
+        <v>0.02159212182804334</v>
       </c>
       <c r="F47">
-        <v>0.01087438610189984</v>
+        <v>-0.04362059503184691</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04269638445323681</v>
+        <v>-0.04748900801129664</v>
       </c>
       <c r="C48">
-        <v>0.01756065655303804</v>
+        <v>0.003288767297617155</v>
       </c>
       <c r="D48">
-        <v>0.01624057608770983</v>
+        <v>-0.04738599675282159</v>
       </c>
       <c r="E48">
-        <v>0.01825358676457847</v>
+        <v>-0.004704505758362429</v>
       </c>
       <c r="F48">
-        <v>-0.01304804578270804</v>
+        <v>0.01274966776608635</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2214061018138649</v>
+        <v>-0.2026965482429198</v>
       </c>
       <c r="C49">
-        <v>-0.02486587115892243</v>
+        <v>0.01704643713451089</v>
       </c>
       <c r="D49">
-        <v>0.03434492616385574</v>
+        <v>0.01040617787959889</v>
       </c>
       <c r="E49">
-        <v>0.0813896754347206</v>
+        <v>0.0358448608583776</v>
       </c>
       <c r="F49">
-        <v>-0.05480766868704877</v>
+        <v>0.03174373080260046</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04213650291525826</v>
+        <v>-0.04855733540641549</v>
       </c>
       <c r="C50">
-        <v>0.03213206945104616</v>
+        <v>0.01133053988601959</v>
       </c>
       <c r="D50">
-        <v>0.0189936743243581</v>
+        <v>-0.02628080040002055</v>
       </c>
       <c r="E50">
-        <v>0.008241493925798864</v>
+        <v>0.02897077637622481</v>
       </c>
       <c r="F50">
-        <v>0.03646426202699902</v>
+        <v>0.009320598409763807</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01768892000166483</v>
+        <v>-0.002633549074664949</v>
       </c>
       <c r="C51">
-        <v>-0.01775166201164552</v>
+        <v>0.0006607198699246021</v>
       </c>
       <c r="D51">
-        <v>-0.002643527782979457</v>
+        <v>0.002609839782002269</v>
       </c>
       <c r="E51">
-        <v>0.00971901575757198</v>
+        <v>-4.131075097408331e-05</v>
       </c>
       <c r="F51">
-        <v>-0.02146027097251548</v>
+        <v>0.005493847776535088</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.08526437071898821</v>
+        <v>-0.1448279040308684</v>
       </c>
       <c r="C52">
-        <v>0.0713593109321371</v>
+        <v>0.01355753134014184</v>
       </c>
       <c r="D52">
-        <v>0.01590088291647556</v>
+        <v>-0.0506396371857195</v>
       </c>
       <c r="E52">
-        <v>0.01902369676987444</v>
+        <v>0.02138128749909203</v>
       </c>
       <c r="F52">
-        <v>0.04532824655685662</v>
+        <v>0.03508367318443468</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1578868543036726</v>
+        <v>-0.1739925998436766</v>
       </c>
       <c r="C53">
-        <v>0.03901857197107244</v>
+        <v>0.01644330703422834</v>
       </c>
       <c r="D53">
-        <v>-0.01733275077335987</v>
+        <v>-0.01178149781740355</v>
       </c>
       <c r="E53">
-        <v>0.04573197258842834</v>
+        <v>0.03554487178397746</v>
       </c>
       <c r="F53">
-        <v>0.06472128716088905</v>
+        <v>0.06316057770970455</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05765788387901113</v>
+        <v>-0.022222096778764</v>
       </c>
       <c r="C54">
-        <v>0.06695597293816298</v>
+        <v>0.01248982958751968</v>
       </c>
       <c r="D54">
-        <v>0.0009299006274762386</v>
+        <v>-0.03437126824823558</v>
       </c>
       <c r="E54">
-        <v>0.01762263402351566</v>
+        <v>0.01540901577298711</v>
       </c>
       <c r="F54">
-        <v>-0.01344721868450802</v>
+        <v>-0.00285759592846719</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08614140922530401</v>
+        <v>-0.1148298122219386</v>
       </c>
       <c r="C55">
-        <v>0.04349564729558354</v>
+        <v>0.01509245774774448</v>
       </c>
       <c r="D55">
-        <v>0.03238039297340921</v>
+        <v>-0.01095044840328049</v>
       </c>
       <c r="E55">
-        <v>0.02032753794803661</v>
+        <v>0.0300335109220337</v>
       </c>
       <c r="F55">
-        <v>0.01628532123237005</v>
+        <v>0.04642942534321999</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1532010690007354</v>
+        <v>-0.1779517670396562</v>
       </c>
       <c r="C56">
-        <v>0.074676416157613</v>
+        <v>0.01386426234987566</v>
       </c>
       <c r="D56">
-        <v>0.02221620998482167</v>
+        <v>-0.007349848396032605</v>
       </c>
       <c r="E56">
-        <v>0.08508854107315722</v>
+        <v>0.03984649064968025</v>
       </c>
       <c r="F56">
-        <v>0.03946132496861293</v>
+        <v>0.03971807092039194</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05711439743961159</v>
+        <v>-0.04627567457770481</v>
       </c>
       <c r="C58">
-        <v>0.04260828683147602</v>
+        <v>0.002456235939992604</v>
       </c>
       <c r="D58">
-        <v>-0.04478337833868997</v>
+        <v>-0.06529472876272248</v>
       </c>
       <c r="E58">
-        <v>0.03621554501918409</v>
+        <v>0.02245047744968584</v>
       </c>
       <c r="F58">
-        <v>0.02622376589131475</v>
+        <v>-0.04562520170414021</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2037561955032892</v>
+        <v>-0.1712833765887265</v>
       </c>
       <c r="C59">
-        <v>-0.2296613515753975</v>
+        <v>0.01597182516457284</v>
       </c>
       <c r="D59">
-        <v>0.04234906046105394</v>
+        <v>0.2263788987552148</v>
       </c>
       <c r="E59">
-        <v>-0.027433139358816</v>
+        <v>-0.048935485799245</v>
       </c>
       <c r="F59">
-        <v>-0.09333495843851852</v>
+        <v>-0.03065446891477985</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2351909585103926</v>
+        <v>-0.237425676370497</v>
       </c>
       <c r="C60">
-        <v>0.08809005658853995</v>
+        <v>-0.004004363508412496</v>
       </c>
       <c r="D60">
-        <v>0.0773494157546219</v>
+        <v>-0.04645245189220625</v>
       </c>
       <c r="E60">
-        <v>0.1236022611633856</v>
+        <v>0.00569627048991821</v>
       </c>
       <c r="F60">
-        <v>-0.0008672633478539622</v>
+        <v>-0.03085651183105087</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1035619797530096</v>
+        <v>-0.08450590643817053</v>
       </c>
       <c r="C61">
-        <v>0.05535483749579369</v>
+        <v>0.01413852547185097</v>
       </c>
       <c r="D61">
-        <v>0.08883721344494852</v>
+        <v>-0.1111791868245832</v>
       </c>
       <c r="E61">
-        <v>0.01328372946909252</v>
+        <v>0.04050452538436117</v>
       </c>
       <c r="F61">
-        <v>0.05596858481486191</v>
+        <v>0.02077264489950007</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1506280979297165</v>
+        <v>-0.1706936484346429</v>
       </c>
       <c r="C62">
-        <v>0.05491506227731927</v>
+        <v>0.01779606422949117</v>
       </c>
       <c r="D62">
-        <v>-0.005803454390349619</v>
+        <v>-0.01102479924772684</v>
       </c>
       <c r="E62">
-        <v>0.06421546335286046</v>
+        <v>0.03724620431454631</v>
       </c>
       <c r="F62">
-        <v>0.0318714223878943</v>
+        <v>0.0213619553626193</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04247819938470514</v>
+        <v>-0.0430602289890096</v>
       </c>
       <c r="C63">
-        <v>0.02009517726879525</v>
+        <v>0.003598127572024408</v>
       </c>
       <c r="D63">
-        <v>0.00833695788511476</v>
+        <v>-0.04998610895073673</v>
       </c>
       <c r="E63">
-        <v>-0.02909921063376935</v>
+        <v>0.02150777522982947</v>
       </c>
       <c r="F63">
-        <v>0.01079019335977566</v>
+        <v>0.009008298414816405</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09218044757363661</v>
+        <v>-0.1125833991622126</v>
       </c>
       <c r="C64">
-        <v>0.04514087978606582</v>
+        <v>0.01210575263313252</v>
       </c>
       <c r="D64">
-        <v>0.0133961380135897</v>
+        <v>-0.04149325625805831</v>
       </c>
       <c r="E64">
-        <v>0.0612306121744985</v>
+        <v>0.02004431114178764</v>
       </c>
       <c r="F64">
-        <v>0.06683957597405683</v>
+        <v>0.02522519673326398</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1162836468238129</v>
+        <v>-0.1444532651898086</v>
       </c>
       <c r="C65">
-        <v>0.03456896205525275</v>
+        <v>0.03119840665607244</v>
       </c>
       <c r="D65">
-        <v>0.01468895766653721</v>
+        <v>0.04376083817400776</v>
       </c>
       <c r="E65">
-        <v>-0.04293007809603767</v>
+        <v>0.0003509672170102602</v>
       </c>
       <c r="F65">
-        <v>0.06832065059258348</v>
+        <v>0.04285283303032471</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1285962761189249</v>
+        <v>-0.1313236052998901</v>
       </c>
       <c r="C66">
-        <v>0.1124851992262997</v>
+        <v>0.01570955672600201</v>
       </c>
       <c r="D66">
-        <v>0.1327028233393745</v>
+        <v>-0.1379794782165843</v>
       </c>
       <c r="E66">
-        <v>0.007227081555065753</v>
+        <v>0.06553419239862331</v>
       </c>
       <c r="F66">
-        <v>0.1270559662357726</v>
+        <v>0.04053244438970453</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05673546197790523</v>
+        <v>-0.06284329206765109</v>
       </c>
       <c r="C67">
-        <v>0.02903689991373736</v>
+        <v>0.003561184105988413</v>
       </c>
       <c r="D67">
-        <v>-0.03255235127565691</v>
+        <v>-0.05447558914764338</v>
       </c>
       <c r="E67">
-        <v>0.01501605391352453</v>
+        <v>0.0201520939923229</v>
       </c>
       <c r="F67">
-        <v>0.05729742967448168</v>
+        <v>-0.04080934911484365</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1193260153450663</v>
+        <v>-0.1147984147316687</v>
       </c>
       <c r="C68">
-        <v>-0.2540511978662768</v>
+        <v>0.02532264906706858</v>
       </c>
       <c r="D68">
-        <v>0.009770685798525698</v>
+        <v>0.2657397069385657</v>
       </c>
       <c r="E68">
-        <v>-0.08073325368180215</v>
+        <v>-0.08662468818779627</v>
       </c>
       <c r="F68">
-        <v>0.01466212691104015</v>
+        <v>0.03851472730811722</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03725045023119329</v>
+        <v>-0.03944941750948877</v>
       </c>
       <c r="C69">
-        <v>-0.009378259839816503</v>
+        <v>0.00111570332654133</v>
       </c>
       <c r="D69">
-        <v>-0.0007102383405725702</v>
+        <v>-0.009115921463987214</v>
       </c>
       <c r="E69">
-        <v>0.009231392198021717</v>
+        <v>0.02402897620895861</v>
       </c>
       <c r="F69">
-        <v>0.04632649740628847</v>
+        <v>-0.01283635575808994</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.035810776202576</v>
+        <v>-0.06365198549089289</v>
       </c>
       <c r="C70">
-        <v>0.01085738558470814</v>
+        <v>-0.02766989798048047</v>
       </c>
       <c r="D70">
-        <v>0.03911117089788466</v>
+        <v>-0.02653004897684711</v>
       </c>
       <c r="E70">
-        <v>0.01603659513917517</v>
+        <v>-0.04837192545429295</v>
       </c>
       <c r="F70">
-        <v>0.08054717530128908</v>
+        <v>-0.2843774617505855</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1389321111301932</v>
+        <v>-0.1335429042326828</v>
       </c>
       <c r="C71">
-        <v>-0.2707523530659702</v>
+        <v>0.02960066055833078</v>
       </c>
       <c r="D71">
-        <v>0.003550677509084644</v>
+        <v>0.281089915073295</v>
       </c>
       <c r="E71">
-        <v>-0.0417870808613027</v>
+        <v>-0.09480786307587007</v>
       </c>
       <c r="F71">
-        <v>0.06402464366295478</v>
+        <v>0.04302715986489242</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1434768809143407</v>
+        <v>-0.1393395728258438</v>
       </c>
       <c r="C72">
-        <v>0.02326684219854534</v>
+        <v>0.0244521833132182</v>
       </c>
       <c r="D72">
-        <v>0.003492237680639928</v>
+        <v>-0.005046915697716204</v>
       </c>
       <c r="E72">
-        <v>0.01556376080293097</v>
+        <v>0.04465000858080604</v>
       </c>
       <c r="F72">
-        <v>0.04102846103063128</v>
+        <v>0.02059852906039107</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2174291585899812</v>
+        <v>-0.2049139358297338</v>
       </c>
       <c r="C73">
-        <v>0.01401664661179634</v>
+        <v>0.01138016231917267</v>
       </c>
       <c r="D73">
-        <v>0.1208478304877314</v>
+        <v>-0.01587101953488598</v>
       </c>
       <c r="E73">
-        <v>0.1518500153550767</v>
+        <v>0.06159848630934438</v>
       </c>
       <c r="F73">
-        <v>0.0117227809214574</v>
+        <v>0.03529015636736383</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1183648627982938</v>
+        <v>-0.09414107193953981</v>
       </c>
       <c r="C74">
-        <v>0.09445187334179762</v>
+        <v>0.01221343192391926</v>
       </c>
       <c r="D74">
-        <v>0.006682146668733391</v>
+        <v>-0.02258563025511886</v>
       </c>
       <c r="E74">
-        <v>0.03584375387172632</v>
+        <v>0.04866178034188842</v>
       </c>
       <c r="F74">
-        <v>0.07464967670239415</v>
+        <v>0.04229062650923162</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1078233278314624</v>
+        <v>-0.1301570396377721</v>
       </c>
       <c r="C75">
-        <v>0.07004366573959353</v>
+        <v>0.02644483980630073</v>
       </c>
       <c r="D75">
-        <v>0.007535412095343709</v>
+        <v>-0.03419630318812402</v>
       </c>
       <c r="E75">
-        <v>0.02895730543956594</v>
+        <v>0.06046988427071062</v>
       </c>
       <c r="F75">
-        <v>-0.03149243673598257</v>
+        <v>0.0137767575664569</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.03110022889825897</v>
+        <v>-0.004646765955027285</v>
       </c>
       <c r="C76">
-        <v>-0.005876864183681827</v>
+        <v>0.001079934584864904</v>
       </c>
       <c r="D76">
-        <v>0.00581228896808373</v>
+        <v>0.001781903711842111</v>
       </c>
       <c r="E76">
-        <v>0.02409428651916982</v>
+        <v>0.002158201173021837</v>
       </c>
       <c r="F76">
-        <v>-0.001942594150296377</v>
+        <v>0.004140959936537033</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06698660458140121</v>
+        <v>-0.07907136060183589</v>
       </c>
       <c r="C77">
-        <v>0.04145181080575874</v>
+        <v>0.01031464597734442</v>
       </c>
       <c r="D77">
-        <v>0.03501921061396372</v>
+        <v>-0.1115867119182842</v>
       </c>
       <c r="E77">
-        <v>0.04358187167587971</v>
+        <v>0.03732224008694834</v>
       </c>
       <c r="F77">
-        <v>0.007887955962635817</v>
+        <v>0.03458564470837616</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1344420360455961</v>
+        <v>-0.1057434304287255</v>
       </c>
       <c r="C78">
-        <v>0.119715668567921</v>
+        <v>0.04185601710635627</v>
       </c>
       <c r="D78">
-        <v>-0.1783471621760198</v>
+        <v>-0.1185091144013255</v>
       </c>
       <c r="E78">
-        <v>-0.1050790422684958</v>
+        <v>0.08511446004295146</v>
       </c>
       <c r="F78">
-        <v>-0.8154663597605701</v>
+        <v>0.07285803505041534</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1294630829412313</v>
+        <v>-0.1646263678818261</v>
       </c>
       <c r="C79">
-        <v>0.05485279568239826</v>
+        <v>0.02037984376738235</v>
       </c>
       <c r="D79">
-        <v>-0.006712497830588568</v>
+        <v>-0.01864790507215315</v>
       </c>
       <c r="E79">
-        <v>0.05519128423416209</v>
+        <v>0.0484472037506981</v>
       </c>
       <c r="F79">
-        <v>0.03833596946822317</v>
+        <v>0.005782280097106215</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07768162269094867</v>
+        <v>-0.08024923751613462</v>
       </c>
       <c r="C80">
-        <v>0.05859738497242879</v>
+        <v>-0.0004184006540494168</v>
       </c>
       <c r="D80">
-        <v>0.07580147072264681</v>
+        <v>-0.05871615545340287</v>
       </c>
       <c r="E80">
-        <v>-0.002276585305111356</v>
+        <v>0.03455522550322867</v>
       </c>
       <c r="F80">
-        <v>0.02378536357390469</v>
+        <v>-0.01459155774190262</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1365077474334732</v>
+        <v>-0.1232190863056733</v>
       </c>
       <c r="C81">
-        <v>0.08638178911274148</v>
+        <v>0.03043111013240396</v>
       </c>
       <c r="D81">
-        <v>0.003199527186876217</v>
+        <v>-0.01858002421775194</v>
       </c>
       <c r="E81">
-        <v>0.04947165533170918</v>
+        <v>0.05914431824104587</v>
       </c>
       <c r="F81">
-        <v>0.004845988872022303</v>
+        <v>0.004142555612878566</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.149433447110938</v>
+        <v>-0.1640015888299561</v>
       </c>
       <c r="C82">
-        <v>0.06137354277103996</v>
+        <v>0.02137816593269203</v>
       </c>
       <c r="D82">
-        <v>0.01176335085581597</v>
+        <v>-0.01589296496978425</v>
       </c>
       <c r="E82">
-        <v>0.04072035926748017</v>
+        <v>0.03397549579838479</v>
       </c>
       <c r="F82">
-        <v>0.04612680761055103</v>
+        <v>0.06025167584850688</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08703696062037354</v>
+        <v>-0.06368386354192548</v>
       </c>
       <c r="C83">
-        <v>0.1455940925406297</v>
+        <v>0.003506284536086175</v>
       </c>
       <c r="D83">
-        <v>0.01478776430620788</v>
+        <v>-0.04908655846797703</v>
       </c>
       <c r="E83">
-        <v>0.00742138834939931</v>
+        <v>0.004918966978887331</v>
       </c>
       <c r="F83">
-        <v>0.03357400769489065</v>
+        <v>-0.04077013851927722</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05289534746355669</v>
+        <v>-0.05954520909510844</v>
       </c>
       <c r="C84">
-        <v>-0.1041040526940926</v>
+        <v>0.01132386011465557</v>
       </c>
       <c r="D84">
-        <v>0.05309751495313</v>
+        <v>-0.06204614932027064</v>
       </c>
       <c r="E84">
-        <v>-0.02110501099490977</v>
+        <v>-7.047229862893914e-05</v>
       </c>
       <c r="F84">
-        <v>-0.1748415943689208</v>
+        <v>0.0128216886075259</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1200212416862075</v>
+        <v>-0.1386759586983839</v>
       </c>
       <c r="C85">
-        <v>0.0433159950493581</v>
+        <v>0.0258753501174017</v>
       </c>
       <c r="D85">
-        <v>0.008857621143851063</v>
+        <v>-0.01482195407621817</v>
       </c>
       <c r="E85">
-        <v>0.06883115783989545</v>
+        <v>0.0407141187588404</v>
       </c>
       <c r="F85">
-        <v>0.02936945439207892</v>
+        <v>0.04388927466066921</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09641496794202717</v>
+        <v>-0.09894899885162758</v>
       </c>
       <c r="C86">
-        <v>0.02481485101742477</v>
+        <v>-0.006717946295400176</v>
       </c>
       <c r="D86">
-        <v>-0.002125129920257189</v>
+        <v>-0.01997960954886226</v>
       </c>
       <c r="E86">
-        <v>0.1798426021199141</v>
+        <v>0.1482339100298907</v>
       </c>
       <c r="F86">
-        <v>-0.2823999091332709</v>
+        <v>-0.8603533451845911</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1175053814218835</v>
+        <v>-0.09833903899498785</v>
       </c>
       <c r="C87">
-        <v>0.1103131825922208</v>
+        <v>0.02505233443053617</v>
       </c>
       <c r="D87">
-        <v>-0.004409120084170798</v>
+        <v>-0.07681369328830182</v>
       </c>
       <c r="E87">
-        <v>0.07489371379109276</v>
+        <v>-0.05253305411691318</v>
       </c>
       <c r="F87">
-        <v>-0.01447985415459931</v>
+        <v>0.07826942007142518</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0527671865029365</v>
+        <v>-0.061707947392518</v>
       </c>
       <c r="C88">
-        <v>0.0494385349671525</v>
+        <v>0.003117461857776029</v>
       </c>
       <c r="D88">
-        <v>0.0470040078727367</v>
+        <v>-0.05349479407571792</v>
       </c>
       <c r="E88">
-        <v>0.02647461760066254</v>
+        <v>0.02741562517645684</v>
       </c>
       <c r="F88">
-        <v>0.04642695112284544</v>
+        <v>0.009084018172463184</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1962997084116512</v>
+        <v>-0.1344202692704015</v>
       </c>
       <c r="C89">
-        <v>-0.3659849165933969</v>
+        <v>0.007729157379564264</v>
       </c>
       <c r="D89">
-        <v>-0.05727183535108429</v>
+        <v>0.2598365514067075</v>
       </c>
       <c r="E89">
-        <v>-0.03747343729504098</v>
+        <v>-0.0915489724274242</v>
       </c>
       <c r="F89">
-        <v>-0.01350837338343233</v>
+        <v>0.02675521067924892</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1525162806901921</v>
+        <v>-0.1448052433632638</v>
       </c>
       <c r="C90">
-        <v>-0.2545499690493482</v>
+        <v>0.02503328219271278</v>
       </c>
       <c r="D90">
-        <v>0.008422738034375942</v>
+        <v>0.2682639886351433</v>
       </c>
       <c r="E90">
-        <v>-0.02698618550285612</v>
+        <v>-0.1077892258324208</v>
       </c>
       <c r="F90">
-        <v>0.04677525649251789</v>
+        <v>0.02703830387211132</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07884048419302339</v>
+        <v>-0.1187429170786488</v>
       </c>
       <c r="C91">
-        <v>0.04666767810619526</v>
+        <v>0.01676789528636045</v>
       </c>
       <c r="D91">
-        <v>0.00690815804899895</v>
+        <v>0.006803741776714355</v>
       </c>
       <c r="E91">
-        <v>0.05185683616343934</v>
+        <v>0.05723389178572267</v>
       </c>
       <c r="F91">
-        <v>0.009298635820921454</v>
+        <v>-0.02080904799142849</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.170028559854755</v>
+        <v>-0.1482827095946386</v>
       </c>
       <c r="C92">
-        <v>-0.3012940455610744</v>
+        <v>0.01694320606845624</v>
       </c>
       <c r="D92">
-        <v>-0.0329049865115079</v>
+        <v>0.2993286487590296</v>
       </c>
       <c r="E92">
-        <v>-0.04869549938477112</v>
+        <v>-0.1032867952741633</v>
       </c>
       <c r="F92">
-        <v>0.0002753073152728214</v>
+        <v>0.02386872290465469</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1532308849002318</v>
+        <v>-0.1492791067664729</v>
       </c>
       <c r="C93">
-        <v>-0.3187353703182926</v>
+        <v>0.02166775424146188</v>
       </c>
       <c r="D93">
-        <v>0.0392505088513698</v>
+        <v>0.2712110153936497</v>
       </c>
       <c r="E93">
-        <v>-0.03737428402502618</v>
+        <v>-0.07365925776734847</v>
       </c>
       <c r="F93">
-        <v>0.03744187162351457</v>
+        <v>0.0191158428089081</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.13447774931059</v>
+        <v>-0.133492421268195</v>
       </c>
       <c r="C94">
-        <v>0.06604464511879862</v>
+        <v>0.02390906082561166</v>
       </c>
       <c r="D94">
-        <v>-0.008424316878014804</v>
+        <v>-0.04586827551572031</v>
       </c>
       <c r="E94">
-        <v>0.03613238571852335</v>
+        <v>0.06101342719251215</v>
       </c>
       <c r="F94">
-        <v>0.002790997839069174</v>
+        <v>0.03151491811547882</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1199604615930157</v>
+        <v>-0.1256230697362285</v>
       </c>
       <c r="C95">
-        <v>0.05260485336599015</v>
+        <v>0.005571359946945973</v>
       </c>
       <c r="D95">
-        <v>-0.01161072313996833</v>
+        <v>-0.09144082972396927</v>
       </c>
       <c r="E95">
-        <v>0.03749216650956546</v>
+        <v>0.04508389297915223</v>
       </c>
       <c r="F95">
-        <v>-0.08235698606137543</v>
+        <v>-0.01141953607377859</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.007639821363664968</v>
+        <v>-0.09858152480414517</v>
       </c>
       <c r="C96">
-        <v>0.007223931103814332</v>
+        <v>-0.9889408813154503</v>
       </c>
       <c r="D96">
-        <v>0.0004932292769316473</v>
+        <v>0.02692586893190498</v>
       </c>
       <c r="E96">
-        <v>0.0005912842704223906</v>
+        <v>0.05816967659790621</v>
       </c>
       <c r="F96">
-        <v>-0.02202242976297222</v>
+        <v>0.04808139025251942</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.180826048704001</v>
+        <v>-0.1880641484433928</v>
       </c>
       <c r="C97">
-        <v>0.2084714593035743</v>
+        <v>-0.01120067884743414</v>
       </c>
       <c r="D97">
-        <v>-0.1048704205950974</v>
+        <v>0.007026865165270968</v>
       </c>
       <c r="E97">
-        <v>-0.8745766086042341</v>
+        <v>0.02025033183959558</v>
       </c>
       <c r="F97">
-        <v>0.07089828950902444</v>
+        <v>-0.1811645580421339</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2326534737940514</v>
+        <v>-0.2044003977808515</v>
       </c>
       <c r="C98">
-        <v>0.04191238752564631</v>
+        <v>0.006940287947223794</v>
       </c>
       <c r="D98">
-        <v>-0.08762684282305311</v>
+        <v>-0.0132507038214088</v>
       </c>
       <c r="E98">
-        <v>0.02002429019120479</v>
+        <v>-0.09457824639090186</v>
       </c>
       <c r="F98">
-        <v>-0.09759477735607169</v>
+        <v>-0.1220807991382817</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05573738986133443</v>
+        <v>-0.05685917838928553</v>
       </c>
       <c r="C99">
-        <v>0.01842593538907077</v>
+        <v>-0.003732603660380993</v>
       </c>
       <c r="D99">
-        <v>0.00170166603891988</v>
+        <v>-0.03632360581569078</v>
       </c>
       <c r="E99">
-        <v>0.02037031527171737</v>
+        <v>0.02710914768097509</v>
       </c>
       <c r="F99">
-        <v>-0.007752237515606539</v>
+        <v>0.004438115059685077</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.006176699618511568</v>
+        <v>-0.1242034313752832</v>
       </c>
       <c r="C100">
-        <v>0.01686971618961573</v>
+        <v>-0.04937475782297551</v>
       </c>
       <c r="D100">
-        <v>0.00253874836335281</v>
+        <v>-0.3416925254880138</v>
       </c>
       <c r="E100">
-        <v>-0.1271848386893946</v>
+        <v>-0.8975154774785657</v>
       </c>
       <c r="F100">
-        <v>0.04684431913169791</v>
+        <v>-0.07207081145955603</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03533626084528571</v>
+        <v>-0.0269978120861161</v>
       </c>
       <c r="C101">
-        <v>0.03289186194873485</v>
+        <v>0.008890619270851824</v>
       </c>
       <c r="D101">
-        <v>0.02688414516574064</v>
+        <v>-0.03120423709611757</v>
       </c>
       <c r="E101">
-        <v>0.03510467957187408</v>
+        <v>0.0119739413019642</v>
       </c>
       <c r="F101">
-        <v>0.02589321328610907</v>
+        <v>-0.01300594919320179</v>
       </c>
     </row>
     <row r="102" spans="1:6">
